--- a/correlation/audi/minutely/correlation/audi_correlation_price_with_semantics.xlsx
+++ b/correlation/audi/minutely/correlation/audi_correlation_price_with_semantics.xlsx
@@ -428,35 +428,179 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.02987061368577934</v>
+      </c>
+      <c r="D2">
+        <v>0.07409787618658176</v>
+      </c>
+      <c r="E2">
+        <v>-0.03267418053283896</v>
+      </c>
+      <c r="F2">
+        <v>-0.01229459198241954</v>
+      </c>
+      <c r="G2">
+        <v>-0.01903033723978369</v>
+      </c>
+      <c r="H2">
+        <v>0.006898050767769633</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02987061368577934</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.367266126033975</v>
+      </c>
+      <c r="E3">
+        <v>0.1819520339904537</v>
+      </c>
+      <c r="F3">
+        <v>0.2646591907641582</v>
+      </c>
+      <c r="G3">
+        <v>0.3015653964953343</v>
+      </c>
+      <c r="H3">
+        <v>0.2661226454220842</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.07409787618658176</v>
+      </c>
+      <c r="C4">
+        <v>0.367266126033975</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.4428182151628433</v>
+      </c>
+      <c r="F4">
+        <v>-0.2324856647382229</v>
+      </c>
+      <c r="G4">
+        <v>-0.3041386029329561</v>
+      </c>
+      <c r="H4">
+        <v>0.006662078090311586</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>-0.03267418053283896</v>
+      </c>
+      <c r="C5">
+        <v>0.1819520339904537</v>
+      </c>
+      <c r="D5">
+        <v>-0.4428182151628433</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5853046320857599</v>
+      </c>
+      <c r="G5">
+        <v>0.7139790993666363</v>
+      </c>
+      <c r="H5">
+        <v>-0.2267367911372733</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>-0.01229459198241954</v>
+      </c>
+      <c r="C6">
+        <v>0.2646591907641582</v>
+      </c>
+      <c r="D6">
+        <v>-0.2324856647382229</v>
+      </c>
+      <c r="E6">
+        <v>0.5853046320857599</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3741830692093355</v>
+      </c>
+      <c r="H6">
+        <v>-0.2268008999680158</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>-0.01903033723978369</v>
+      </c>
+      <c r="C7">
+        <v>0.3015653964953343</v>
+      </c>
+      <c r="D7">
+        <v>-0.3041386029329561</v>
+      </c>
+      <c r="E7">
+        <v>0.7139790993666363</v>
+      </c>
+      <c r="F7">
+        <v>0.3741830692093355</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.1293888264935784</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.006898050767769633</v>
+      </c>
+      <c r="C8">
+        <v>0.2661226454220842</v>
+      </c>
+      <c r="D8">
+        <v>0.006662078090311586</v>
+      </c>
+      <c r="E8">
+        <v>-0.2267367911372733</v>
+      </c>
+      <c r="F8">
+        <v>-0.2268008999680158</v>
+      </c>
+      <c r="G8">
+        <v>0.1293888264935784</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/audi/minutely/correlation/audi_correlation_price_with_semantics.xlsx
+++ b/correlation/audi/minutely/correlation/audi_correlation_price_with_semantics.xlsx
@@ -429,22 +429,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02987061368577934</v>
+        <v>0.01291531409491592</v>
       </c>
       <c r="D2">
-        <v>0.07409787618658176</v>
-      </c>
-      <c r="E2">
-        <v>-0.03267418053283896</v>
+        <v>0.01291531409491726</v>
       </c>
       <c r="F2">
-        <v>-0.01229459198241954</v>
-      </c>
-      <c r="G2">
-        <v>-0.01903033723978369</v>
+        <v>0.01291531409491571</v>
       </c>
       <c r="H2">
-        <v>0.006898050767769633</v>
+        <v>-0.01291531409491635</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02987061368577934</v>
+        <v>0.01291531409491592</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.367266126033975</v>
-      </c>
-      <c r="E3">
-        <v>0.1819520339904537</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="F3">
-        <v>0.2646591907641582</v>
-      </c>
-      <c r="G3">
-        <v>0.3015653964953343</v>
+        <v>1.000000000000099</v>
       </c>
       <c r="H3">
-        <v>0.2661226454220842</v>
+        <v>-1.000000000000104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,126 +466,66 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07409787618658176</v>
+        <v>0.01291531409491726</v>
       </c>
       <c r="C4">
-        <v>0.367266126033975</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>-0.4428182151628433</v>
-      </c>
       <c r="F4">
-        <v>-0.2324856647382229</v>
-      </c>
-      <c r="G4">
-        <v>-0.3041386029329561</v>
+        <v>1.000000000000039</v>
       </c>
       <c r="H4">
-        <v>0.006662078090311586</v>
+        <v>-0.9999999999999581</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-0.03267418053283896</v>
-      </c>
-      <c r="C5">
-        <v>0.1819520339904537</v>
-      </c>
-      <c r="D5">
-        <v>-0.4428182151628433</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5853046320857599</v>
-      </c>
-      <c r="G5">
-        <v>0.7139790993666363</v>
-      </c>
-      <c r="H5">
-        <v>-0.2267367911372733</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01229459198241954</v>
+        <v>0.01291531409491571</v>
       </c>
       <c r="C6">
-        <v>0.2646591907641582</v>
+        <v>1.000000000000099</v>
       </c>
       <c r="D6">
-        <v>-0.2324856647382229</v>
-      </c>
-      <c r="E6">
-        <v>0.5853046320857599</v>
+        <v>1.000000000000039</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0.3741830692093355</v>
-      </c>
       <c r="H6">
-        <v>-0.2268008999680158</v>
+        <v>-0.9999999999999509</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-0.01903033723978369</v>
-      </c>
-      <c r="C7">
-        <v>0.3015653964953343</v>
-      </c>
-      <c r="D7">
-        <v>-0.3041386029329561</v>
-      </c>
-      <c r="E7">
-        <v>0.7139790993666363</v>
-      </c>
-      <c r="F7">
-        <v>0.3741830692093355</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.1293888264935784</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006898050767769633</v>
+        <v>-0.01291531409491635</v>
       </c>
       <c r="C8">
-        <v>0.2661226454220842</v>
+        <v>-1.000000000000104</v>
       </c>
       <c r="D8">
-        <v>0.006662078090311586</v>
-      </c>
-      <c r="E8">
-        <v>-0.2267367911372733</v>
+        <v>-0.9999999999999581</v>
       </c>
       <c r="F8">
-        <v>-0.2268008999680158</v>
-      </c>
-      <c r="G8">
-        <v>0.1293888264935784</v>
+        <v>-0.9999999999999509</v>
       </c>
       <c r="H8">
         <v>1</v>
